--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37992C85-A306-4287-B415-98BD171AC2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F422FDEC-5B13-4A60-AAB1-F48FCCEE17A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId2"/>
-    <sheet name="sample.ssample" sheetId="3" r:id="rId3"/>
+    <sheet name="public.sample" sheetId="3" r:id="rId3"/>
+    <sheet name="public.m_prefecture" sheetId="5" r:id="rId4"/>
+    <sheet name="public.customer_table" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="116">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -53,9 +55,6 @@
     <t>備考</t>
   </si>
   <si>
-    <t>sample.ssample</t>
-  </si>
-  <si>
     <t>テーブル情報</t>
   </si>
   <si>
@@ -108,9 +107,6 @@
   </si>
   <si>
     <t>データ型</t>
-  </si>
-  <si>
-    <t>Not Null</t>
   </si>
   <si>
     <t>デフォルト</t>
@@ -358,6 +354,110 @@
     <rPh sb="5" eb="7">
       <t>カクノウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都道府県マスタテーブル</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public.m_prefecture</t>
+  </si>
+  <si>
+    <t>public.sample</t>
+  </si>
+  <si>
+    <t>４７都道府県マスタ</t>
+    <rPh sb="2" eb="6">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public.customer_table</t>
+  </si>
+  <si>
+    <t>都道府県ID</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都道府県名</t>
+    <rPh sb="0" eb="5">
+      <t>トドウフケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都道府県フリガナ</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prefecture_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prefecture_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prefecture_kana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/10/2２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/10/22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_prefecture</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>customer_table</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -457,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -616,19 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1076,7 +1163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,31 +1173,157 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1119,7 +1332,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1134,79 +1347,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -1215,86 +1377,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1627,7 +1723,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1638,43 +1734,81 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="67">
+      <c r="E2" s="74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="70" t="s">
+      <c r="B3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="75"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="37">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>94</v>
       </c>
+      <c r="C4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="37">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="75"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'sample.ssample'!A1" display="'sample.ssample'!A1" xr:uid="{9D4F5E95-D0A5-40C6-A873-315B6B350BCE}"/>
+    <hyperlink ref="C3" location="public.sample!A1" display="public.sample" xr:uid="{9D4F5E95-D0A5-40C6-A873-315B6B350BCE}"/>
+    <hyperlink ref="C4" location="public.m_prefecture!A1" display="public.m_prefecture" xr:uid="{D05BA522-5E0D-414A-9794-82942114968F}"/>
+    <hyperlink ref="C5" location="public.customers_table!A1" display="public.customer_table" xr:uid="{6A288146-A16A-4B53-8EEE-E5D796A9615B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1699,693 +1833,740 @@
     <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="57"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="48" t="s">
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="62"/>
+      <c r="G31" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F32" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="15">
+        <v>1</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="16">
+        <v>2</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="16">
+        <v>3</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="16">
+        <v>4</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="16">
+        <v>5</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="16">
+        <v>6</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>7</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>8</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>9</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>10</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>11</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>12</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B47" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="49" t="s">
+      <c r="B48" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="B49" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="49" t="s">
+      <c r="B50" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="49" t="s">
+      <c r="B51" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="B52" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="66" t="s">
+      <c r="B53" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="48" t="s">
+      <c r="B54" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="19">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="23">
-        <v>2</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="27">
-        <v>3</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="66" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="31">
-        <v>1</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="36">
-        <v>2</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="36">
-        <v>3</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="36">
-        <v>4</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="40"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="36">
-        <v>5</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="36">
-        <v>6</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="36">
-        <v>7</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="36">
-        <v>8</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="36">
-        <v>9</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="36">
-        <v>10</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="36">
-        <v>11</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="36">
-        <v>12</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="36">
-        <v>13</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="40"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="36">
-        <v>14</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="36">
-        <v>15</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="36">
-        <v>16</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="36">
-        <v>17</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="40"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="36">
-        <v>18</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="40"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="36">
-        <v>19</v>
-      </c>
-      <c r="B53" s="37" t="s">
+      <c r="B55" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="40"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="36">
-        <v>20</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="40"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="41">
-        <v>21</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="C2:D2"/>
@@ -2402,47 +2583,1549 @@
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C3B8E9-815E-44F7-BD07-6628AE0CCE20}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="57"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="62"/>
+      <c r="G31" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="15">
+        <v>1</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="16">
+        <v>2</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="16">
+        <v>3</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="16">
+        <v>4</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="16">
+        <v>5</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="16">
+        <v>6</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>7</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>8</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>9</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>10</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>11</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>12</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>13</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>14</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>15</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>16</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>17</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>18</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>19</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>20</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="17">
+        <v>21</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="68"/>
+      <c r="D55" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2918F82D-7CEA-4739-BB74-998B92E3CF77}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="57"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="62"/>
+      <c r="G31" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="15">
+        <v>1</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="16">
+        <v>2</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="16">
+        <v>3</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="16">
+        <v>4</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="16">
+        <v>5</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="16">
+        <v>6</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>7</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>8</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>9</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>10</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>11</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>12</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>13</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>14</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>15</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>16</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>17</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>18</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>19</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>20</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="17">
+        <v>21</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="68"/>
+      <c r="D55" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F422FDEC-5B13-4A60-AAB1-F48FCCEE17A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8ACCEC-1F8E-4107-8ACA-592FE0F9FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
@@ -417,10 +417,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>char</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>smallint</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -458,6 +454,10 @@
   </si>
   <si>
     <t>NOT NULL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>character(100)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1287,6 +1287,51 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1346,51 +1391,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1752,8 +1752,8 @@
       <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="74" t="s">
-        <v>113</v>
+      <c r="E2" s="44" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -1769,7 +1769,7 @@
       <c r="D3" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="37">
@@ -1784,8 +1784,8 @@
       <c r="D4" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="75" t="s">
-        <v>112</v>
+      <c r="E4" s="45" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -1801,7 +1801,7 @@
       <c r="D5" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="75"/>
+      <c r="E5" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1849,111 +1849,111 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="48"/>
+      <c r="C5" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="50"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="B8" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="57"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -1977,7 +1977,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -2128,10 +2128,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -2152,10 +2152,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -2176,10 +2176,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -2213,319 +2213,364 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="63" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="66"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="63" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="63" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="66"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="63" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="63" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="66"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="63" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="66"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="63" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="63" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="66"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="63" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="63" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="63" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="63" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="66"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="66"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="66"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="63" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="66"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="70"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:G50"/>
     <mergeCell ref="B54:C54"/>
@@ -2538,51 +2583,6 @@
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2625,113 +2625,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="50"/>
+      <c r="F3" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="48"/>
+      <c r="C4" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="50"/>
+      <c r="F4" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="48"/>
+      <c r="C6" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="50"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="B8" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="57"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2755,7 +2755,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -2775,13 +2775,13 @@
         <v>102</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>107</v>
+      <c r="F14" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
@@ -2799,13 +2799,13 @@
         <v>103</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="72" t="s">
-        <v>107</v>
+      <c r="F15" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
@@ -2825,13 +2825,13 @@
         <v>104</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="73" t="s">
-        <v>107</v>
+      <c r="F16" s="43" t="s">
+        <v>106</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>10</v>
@@ -2904,10 +2904,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -2928,10 +2928,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -2952,10 +2952,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -2984,319 +2984,368 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="63" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="66"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="63" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="63" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="66"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="63" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="63" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="66"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="63" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="66"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="63" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="63" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="66"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="63" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="63" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="63" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="63" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="66"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="66"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="66"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="63" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="66"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="70"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B52:C52"/>
@@ -3305,55 +3354,6 @@
     <mergeCell ref="D53:G53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3395,113 +3395,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="48"/>
+      <c r="C4" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="50"/>
+      <c r="F4" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="48"/>
+      <c r="C6" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="50"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="B8" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="57"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3525,7 +3525,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -3547,11 +3547,11 @@
       <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>107</v>
+      <c r="E14" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
@@ -3676,10 +3676,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -3700,10 +3700,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -3724,10 +3724,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -3756,319 +3756,368 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="63" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="66"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="63" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="63" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="66"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="63" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="63" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="66"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="63" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="66"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="63" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="63" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="66"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="63" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="63" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="63" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="63" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="66"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="66"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="66"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="63" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="66"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="70"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B52:C52"/>
@@ -4077,55 +4126,6 @@
     <mergeCell ref="D53:G53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8ACCEC-1F8E-4107-8ACA-592FE0F9FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F8FF5E-CE38-40C9-9636-B266BECCEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="public.sample" sheetId="3" r:id="rId3"/>
     <sheet name="public.m_prefecture" sheetId="5" r:id="rId4"/>
     <sheet name="public.customer_table" sheetId="6" r:id="rId5"/>
+    <sheet name="public.m_job" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="124">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -398,66 +399,103 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>都道府県フリガナ</t>
+    <t>prefecture_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prefecture_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prefecture_kana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/10/2２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/10/22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_prefecture</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>customer_table</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>character(100)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>職業マスタテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_job</t>
+  </si>
+  <si>
+    <t>job_id</t>
+  </si>
+  <si>
+    <t>job_name</t>
+  </si>
+  <si>
+    <t>job_kana</t>
+  </si>
+  <si>
+    <t>職業ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>職業名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>職業名フリガナ</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都道府県名フリガナ</t>
     <rPh sb="0" eb="4">
       <t>トドウフケン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefecture_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefecture_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefecture_kana</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>smallint</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2023/10/2２</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2023/10/22</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>public</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>m_prefecture</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>☑</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チェック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>customer_table</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>character(100)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1302,66 +1340,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1391,6 +1369,66 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1753,7 +1791,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -1785,7 +1823,7 @@
         <v>97</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -1849,111 +1887,111 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="65"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -1977,7 +2015,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -2128,10 +2166,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -2152,10 +2190,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -2176,10 +2214,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -2213,319 +2251,362 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="E25:F25"/>
@@ -2540,49 +2621,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2602,7 +2640,9 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2625,113 +2665,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="65"/>
+      <c r="F3" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>109</v>
+      <c r="C4" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="65"/>
+      <c r="F4" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
-        <v>110</v>
+      <c r="C6" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2755,7 +2795,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -2772,16 +2812,16 @@
         <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>106</v>
-      </c>
       <c r="F14" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
@@ -2796,16 +2836,16 @@
         <v>100</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
@@ -2819,19 +2859,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>10</v>
@@ -2904,10 +2944,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -2928,10 +2968,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -2952,10 +2992,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -2984,325 +3024,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -3316,44 +3388,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3395,113 +3435,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>109</v>
+      <c r="C4" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="65"/>
+      <c r="F4" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
-        <v>113</v>
+      <c r="C6" s="60" t="s">
+        <v>112</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3525,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -3548,10 +3588,10 @@
         <v>25</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
@@ -3676,10 +3716,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -3700,10 +3740,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -3724,10 +3764,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -3756,325 +3796,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -4088,36 +4160,726 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FC44A-A101-41B9-856F-0047CD3EDEE5}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="59"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="15">
+        <v>1</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="16">
+        <v>2</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="16">
+        <v>3</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="16">
+        <v>4</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="16">
+        <v>5</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="16">
+        <v>6</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>7</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>8</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>9</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>10</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>11</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>12</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>13</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>14</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>15</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>16</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>17</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>18</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>19</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>20</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="17">
+        <v>21</v>
+      </c>
+      <c r="B55" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B52:C52"/>
@@ -4126,6 +4888,55 @@
     <mergeCell ref="D53:G53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F8FF5E-CE38-40C9-9636-B266BECCEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B09211A-E6CE-4663-B5C2-5D127D560220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="124">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -465,15 +465,6 @@
     <t>m_job</t>
   </si>
   <si>
-    <t>job_id</t>
-  </si>
-  <si>
-    <t>job_name</t>
-  </si>
-  <si>
-    <t>job_kana</t>
-  </si>
-  <si>
     <t>職業ID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -496,6 +487,18 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>job_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>job_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>job_kana</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2640,9 +2643,7 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2859,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>103</v>
@@ -4185,7 +4186,9 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4352,10 +4355,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>104</v>
@@ -4376,10 +4379,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>114</v>
@@ -4402,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>114</v>
@@ -4413,9 +4416,7 @@
       <c r="E16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>105</v>
-      </c>
+      <c r="F16" s="43"/>
       <c r="G16" s="13" t="s">
         <v>10</v>
       </c>
@@ -4918,11 +4919,6 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -4931,6 +4927,11 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B09211A-E6CE-4663-B5C2-5D127D560220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277ACF7F-E36A-490F-96FE-B4236D4492B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="11730" windowHeight="14745" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="160">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -499,6 +499,192 @@
   </si>
   <si>
     <t>job_kana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シーケンス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フリガナ（姓）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フリガナ（名）</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="4">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>職業</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出身地</t>
+    <rPh sb="0" eb="3">
+      <t>シュッシンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>趣味</t>
+    <rPh sb="0" eb="2">
+      <t>シュミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(10０)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(254)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(８)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(1５２)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hobby</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sei_kanji</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mei_kanji</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sei_kana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mei_kana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>email_address</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>postal _number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>birthplace</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1343,6 +1529,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1373,12 +1601,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1395,42 +1617,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1750,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2536BE4-FE03-40C0-83A5-1AEBDC650C2B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -1890,111 +2076,111 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="63"/>
+      <c r="C5" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="75"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2169,10 +2355,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -2193,10 +2379,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -2217,10 +2403,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -2254,362 +2440,319 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="E25:F25"/>
@@ -2624,6 +2767,49 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2666,113 +2852,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2945,10 +3131,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -2969,10 +3155,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -2993,10 +3179,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -3025,357 +3211,325 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -3389,12 +3543,44 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3411,9 +3597,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3436,113 +3622,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3586,7 +3772,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>105</v>
@@ -3598,7 +3784,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -3606,567 +3792,807 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>10</v>
+      <c r="F15" s="42" t="s">
+        <v>105</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="36" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>13</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="11">
+        <v>15</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="57"/>
+      <c r="E31" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="G31" s="29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="55"/>
+      <c r="G37" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="55"/>
+      <c r="G43" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="23" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B46" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="32" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="15">
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B47" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C47" s="57"/>
+      <c r="D47" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="16">
-        <v>2</v>
-      </c>
-      <c r="B36" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="16">
-        <v>3</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="16">
-        <v>4</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="16">
-        <v>5</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="16">
-        <v>6</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="16">
-        <v>7</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="16">
-        <v>8</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="16">
-        <v>9</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="16">
-        <v>10</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="16">
-        <v>11</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="16">
-        <v>12</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="16">
-        <v>13</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
-        <v>14</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+        <v>2</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
-        <v>15</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+        <v>3</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
-        <v>16</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+        <v>4</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
-        <v>17</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+        <v>5</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
-        <v>18</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+        <v>6</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
-        <v>19</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+        <v>7</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
+        <v>8</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>9</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>10</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
+        <v>11</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A58" s="16">
+        <v>12</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A59" s="16">
+        <v>13</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A60" s="16">
+        <v>14</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="49"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A61" s="16">
+        <v>15</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="49"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A62" s="16">
+        <v>16</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="49"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A63" s="16">
+        <v>17</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="49"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A64" s="16">
+        <v>18</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="47"/>
+      <c r="D64" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="49"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A65" s="16">
+        <v>19</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="49"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A66" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B66" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="17">
+      <c r="C66" s="47"/>
+      <c r="D66" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="49"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B67" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:G53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4211,113 +4637,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4488,10 +4914,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -4512,10 +4938,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -4536,10 +4962,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -4568,357 +4994,325 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -4932,12 +5326,44 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277ACF7F-E36A-490F-96FE-B4236D4492B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A73617-745A-45AE-9437-322174D6CAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="11730" windowHeight="14745" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
+    <workbookView xWindow="5550" yWindow="3975" windowWidth="17280" windowHeight="10665" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="161">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -685,6 +685,16 @@
   </si>
   <si>
     <t>birthplace</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:男性,2:女性</t>
+    <rPh sb="1" eb="3">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョセイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1529,48 +1539,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1601,6 +1569,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1617,6 +1591,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2076,111 +2086,111 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="75"/>
+      <c r="C5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2355,10 +2365,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -2379,10 +2389,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -2403,10 +2413,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -2440,319 +2450,362 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="E25:F25"/>
@@ -2767,49 +2820,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2852,113 +2862,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3131,10 +3141,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -3155,10 +3165,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -3179,10 +3189,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -3211,325 +3221,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -3543,44 +3585,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3622,113 +3632,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3949,7 +3959,9 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
@@ -4143,10 +4155,10 @@
         <v>32</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="55"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="29" t="s">
         <v>43</v>
       </c>
@@ -4167,10 +4179,10 @@
         <v>32</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="29" t="s">
         <v>46</v>
       </c>
@@ -4191,10 +4203,10 @@
         <v>49</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="29" t="s">
         <v>51</v>
       </c>
@@ -4223,325 +4235,357 @@
       <c r="A47" s="15">
         <v>1</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56" t="s">
+      <c r="C47" s="69"/>
+      <c r="D47" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>2</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>3</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>5</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>6</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>7</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>8</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>9</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="46" t="s">
+      <c r="C55" s="65"/>
+      <c r="D55" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>10</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="46" t="s">
+      <c r="C56" s="65"/>
+      <c r="D56" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="49"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>11</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="46" t="s">
+      <c r="C57" s="65"/>
+      <c r="D57" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="67"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>12</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="46" t="s">
+      <c r="C58" s="65"/>
+      <c r="D58" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="49"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>13</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="46" t="s">
+      <c r="C59" s="65"/>
+      <c r="D59" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="49"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="67"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>14</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="49"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="67"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>15</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="46" t="s">
+      <c r="C61" s="65"/>
+      <c r="D61" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="49"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="67"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>16</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="49"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="67"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>17</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="49"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="67"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>18</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="46" t="s">
+      <c r="C64" s="65"/>
+      <c r="D64" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="49"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>19</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>20</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="49"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="17">
         <v>21</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C5:D5"/>
@@ -4555,44 +4599,12 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4637,113 +4649,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4914,10 +4926,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -4938,10 +4950,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -4962,10 +4974,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -4994,325 +5006,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -5326,44 +5370,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A73617-745A-45AE-9437-322174D6CAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC742267-5F46-40D1-B408-769AFD68BA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="3975" windowWidth="17280" windowHeight="10665" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="2" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="public.sample" sheetId="3" r:id="rId3"/>
     <sheet name="public.m_prefecture" sheetId="5" r:id="rId4"/>
     <sheet name="public.customer_table" sheetId="6" r:id="rId5"/>
-    <sheet name="public.m_job" sheetId="7" r:id="rId6"/>
+    <sheet name="public.user_table" sheetId="8" r:id="rId6"/>
+    <sheet name="public.m_job" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="177">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -695,6 +696,82 @@
     <rPh sb="6" eb="8">
       <t>ジョセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>customer_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(8)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1539,6 +1616,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1569,12 +1688,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1591,42 +1704,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2063,7 +2140,7 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2086,111 +2163,111 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="63"/>
+      <c r="C5" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="75"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2365,10 +2442,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -2389,10 +2466,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -2413,10 +2490,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -2450,362 +2527,319 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="E25:F25"/>
@@ -2820,6 +2854,49 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2862,113 +2939,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3141,10 +3218,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -3165,10 +3242,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -3189,10 +3266,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -3221,321 +3298,2171 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2918F82D-7CEA-4739-BB74-998B92E3CF77}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="71"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>13</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="11">
+        <v>15</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="55"/>
+      <c r="G37" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="55"/>
+      <c r="G43" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="15">
+        <v>1</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="57"/>
+      <c r="D47" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>2</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>3</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>4</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>5</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>6</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>7</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>8</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>9</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>10</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
+        <v>11</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A58" s="16">
+        <v>12</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A59" s="16">
+        <v>13</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A60" s="16">
+        <v>14</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="49"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A61" s="16">
+        <v>15</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="49"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A62" s="16">
+        <v>16</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="49"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A63" s="16">
+        <v>17</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="49"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A64" s="16">
+        <v>18</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="47"/>
+      <c r="D64" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="49"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A65" s="16">
+        <v>19</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="49"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A66" s="16">
+        <v>20</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="49"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="17">
+        <v>21</v>
+      </c>
+      <c r="B67" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="51"/>
+      <c r="D67" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="71"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="55"/>
+      <c r="G34" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="15">
+        <v>1</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="16">
+        <v>2</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="16">
+        <v>3</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>4</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>5</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>6</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>7</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>8</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>9</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>10</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>11</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>12</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>13</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>14</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>15</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>16</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>17</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>18</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>19</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
+        <v>20</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="17">
+        <v>21</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="B53:C53"/>
@@ -3566,25 +5493,19 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -3602,1021 +5523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2918F82D-7CEA-4739-BB74-998B92E3CF77}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="61"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="61"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="61"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
-        <v>10</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
-        <v>11</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
-        <v>12</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="7">
-        <v>13</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
-        <v>14</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="11">
-        <v>15</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="57"/>
-      <c r="G43" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="15">
-        <v>1</v>
-      </c>
-      <c r="B47" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="16">
-        <v>2</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="16">
-        <v>3</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="16">
-        <v>4</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="16">
-        <v>5</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="16">
-        <v>6</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="16">
-        <v>7</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="16">
-        <v>8</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="16">
-        <v>9</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="16">
-        <v>10</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="16">
-        <v>11</v>
-      </c>
-      <c r="B57" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="16">
-        <v>12</v>
-      </c>
-      <c r="B58" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A59" s="16">
-        <v>13</v>
-      </c>
-      <c r="B59" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A60" s="16">
-        <v>14</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A61" s="16">
-        <v>15</v>
-      </c>
-      <c r="B61" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="67"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A62" s="16">
-        <v>16</v>
-      </c>
-      <c r="B62" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="67"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A63" s="16">
-        <v>17</v>
-      </c>
-      <c r="B63" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="67"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A64" s="16">
-        <v>18</v>
-      </c>
-      <c r="B64" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A65" s="16">
-        <v>19</v>
-      </c>
-      <c r="B65" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A66" s="16">
-        <v>20</v>
-      </c>
-      <c r="B66" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="17">
-        <v>21</v>
-      </c>
-      <c r="B67" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FC44A-A101-41B9-856F-0047CD3EDEE5}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -4649,113 +5556,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4926,10 +5833,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -4950,10 +5857,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -4974,10 +5881,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -5006,357 +5913,325 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -5370,12 +6245,44 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC742267-5F46-40D1-B408-769AFD68BA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3039B05-F7D2-4661-AFC9-D6281D418CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="2" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="5" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
@@ -1616,48 +1616,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1688,6 +1646,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1704,6 +1668,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2140,7 +2140,7 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2163,111 +2163,111 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="75"/>
+      <c r="C5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2442,10 +2442,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -2466,10 +2466,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -2490,10 +2490,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -2527,319 +2527,362 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="E25:F25"/>
@@ -2854,49 +2897,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2939,113 +2939,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3218,10 +3218,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -3242,10 +3242,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -3266,10 +3266,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -3298,325 +3298,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -3630,44 +3662,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3709,113 +3709,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4232,10 +4232,10 @@
         <v>32</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="55"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="29" t="s">
         <v>43</v>
       </c>
@@ -4256,10 +4256,10 @@
         <v>32</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="29" t="s">
         <v>46</v>
       </c>
@@ -4280,10 +4280,10 @@
         <v>49</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="29" t="s">
         <v>51</v>
       </c>
@@ -4312,325 +4312,357 @@
       <c r="A47" s="15">
         <v>1</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56" t="s">
+      <c r="C47" s="69"/>
+      <c r="D47" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>2</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>3</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>5</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>6</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>7</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>8</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>9</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="46" t="s">
+      <c r="C55" s="65"/>
+      <c r="D55" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>10</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="46" t="s">
+      <c r="C56" s="65"/>
+      <c r="D56" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="49"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>11</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="46" t="s">
+      <c r="C57" s="65"/>
+      <c r="D57" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="67"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>12</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="46" t="s">
+      <c r="C58" s="65"/>
+      <c r="D58" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="49"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>13</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="46" t="s">
+      <c r="C59" s="65"/>
+      <c r="D59" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="49"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="67"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>14</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="49"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="67"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>15</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="46" t="s">
+      <c r="C61" s="65"/>
+      <c r="D61" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="49"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="67"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>16</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="49"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="67"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>17</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="49"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="67"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>18</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="46" t="s">
+      <c r="C64" s="65"/>
+      <c r="D64" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="49"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>19</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>20</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="49"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="17">
         <v>21</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C5:D5"/>
@@ -4644,44 +4676,12 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4700,9 +4700,7 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4725,113 +4723,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -5062,10 +5060,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>43</v>
       </c>
@@ -5086,10 +5084,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -5110,10 +5108,10 @@
         <v>49</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="55"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="29" t="s">
         <v>51</v>
       </c>
@@ -5142,319 +5140,368 @@
       <c r="A38" s="15">
         <v>1</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="56" t="s">
+      <c r="C38" s="69"/>
+      <c r="D38" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>5</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>6</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>7</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>8</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>10</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>11</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>12</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>13</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>14</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>15</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>16</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>17</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>18</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="46" t="s">
+      <c r="C55" s="65"/>
+      <c r="D55" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>19</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="49"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>20</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="67"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17">
         <v>21</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:G58"/>
     <mergeCell ref="B55:C55"/>
@@ -5463,55 +5510,6 @@
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5556,113 +5554,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -5833,10 +5831,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
         <v>43</v>
       </c>
@@ -5857,10 +5855,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
         <v>46</v>
       </c>
@@ -5881,10 +5879,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
         <v>51</v>
       </c>
@@ -5913,325 +5911,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="46" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -6245,44 +6275,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3039B05-F7D2-4661-AFC9-D6281D418CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A5542-A08C-4CBD-834D-926DFB61113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="5" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="2" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId2"/>
-    <sheet name="public.sample" sheetId="3" r:id="rId3"/>
-    <sheet name="public.m_prefecture" sheetId="5" r:id="rId4"/>
-    <sheet name="public.customer_table" sheetId="6" r:id="rId5"/>
-    <sheet name="public.user_table" sheetId="8" r:id="rId6"/>
-    <sheet name="public.m_job" sheetId="7" r:id="rId7"/>
+    <sheet name="public.m_prefecture" sheetId="5" r:id="rId3"/>
+    <sheet name="public.customer_table" sheetId="6" r:id="rId4"/>
+    <sheet name="public.user_table" sheetId="8" r:id="rId5"/>
+    <sheet name="public.m_job" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="168">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -112,21 +111,6 @@
   </si>
   <si>
     <t>デフォルト</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>birthday</t>
   </si>
   <si>
     <t>date</t>
@@ -324,24 +308,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お名前</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生年月日</t>
-    <rPh sb="0" eb="4">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>auto_increment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>顧客テーブル</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
@@ -356,10 +322,6 @@
     <rPh sb="5" eb="7">
       <t>カクノウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2067,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2075,13 +2037,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E3" s="45"/>
     </row>
@@ -2090,16 +2052,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2107,13 +2069,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E5" s="45"/>
     </row>
@@ -2134,781 +2096,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76556F0E-085E-4066-8758-B55A82ED55C7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="61"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="61"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
-        <v>3</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="F32" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="15">
-        <v>1</v>
-      </c>
-      <c r="B35" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="16">
-        <v>2</v>
-      </c>
-      <c r="B36" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="16">
-        <v>3</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="16">
-        <v>4</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="16">
-        <v>5</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="16">
-        <v>6</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="16">
-        <v>7</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="16">
-        <v>8</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="16">
-        <v>9</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="16">
-        <v>10</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="16">
-        <v>11</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="16">
-        <v>12</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="16">
-        <v>13</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="16">
-        <v>14</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="16">
-        <v>15</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="16">
-        <v>16</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="16">
-        <v>17</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="16">
-        <v>18</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="16">
-        <v>19</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="16">
-        <v>20</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="17">
-        <v>21</v>
-      </c>
-      <c r="B55" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C3B8E9-815E-44F7-BD07-6628AE0CCE20}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -2916,7 +2103,7 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2940,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
@@ -2956,14 +2143,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G3" s="61"/>
     </row>
@@ -2972,14 +2159,14 @@
         <v>8</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="61"/>
     </row>
@@ -2988,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
@@ -3004,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="22"/>
@@ -3066,10 +2253,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -3083,19 +2270,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
@@ -3107,19 +2294,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
@@ -3133,19 +2320,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>10</v>
@@ -3156,7 +2343,7 @@
     </row>
     <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3164,25 +2351,25 @@
         <v>1</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3190,13 +2377,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -3204,7 +2391,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -3212,23 +2399,23 @@
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -3236,23 +2423,23 @@
         <v>1</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -3260,23 +2447,23 @@
         <v>1</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -3284,11 +2471,11 @@
         <v>1</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
@@ -3299,11 +2486,11 @@
         <v>1</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C35" s="69"/>
       <c r="D35" s="68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
@@ -3314,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="64" t="s">
@@ -3329,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="64" t="s">
@@ -3344,11 +2531,11 @@
         <v>4</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E38" s="66"/>
       <c r="F38" s="66"/>
@@ -3359,11 +2546,11 @@
         <v>5</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="64" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
@@ -3374,11 +2561,11 @@
         <v>6</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E40" s="66"/>
       <c r="F40" s="66"/>
@@ -3389,11 +2576,11 @@
         <v>7</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C41" s="65"/>
       <c r="D41" s="64" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E41" s="66"/>
       <c r="F41" s="66"/>
@@ -3404,11 +2591,11 @@
         <v>8</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C42" s="65"/>
       <c r="D42" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E42" s="66"/>
       <c r="F42" s="66"/>
@@ -3419,11 +2606,11 @@
         <v>9</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E43" s="66"/>
       <c r="F43" s="66"/>
@@ -3434,11 +2621,11 @@
         <v>10</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="64" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
@@ -3449,11 +2636,11 @@
         <v>11</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C45" s="65"/>
       <c r="D45" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
@@ -3464,11 +2651,11 @@
         <v>12</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
@@ -3479,11 +2666,11 @@
         <v>13</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E47" s="66"/>
       <c r="F47" s="66"/>
@@ -3494,7 +2681,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C48" s="65"/>
       <c r="D48" s="64" t="s">
@@ -3509,11 +2696,11 @@
         <v>15</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C49" s="65"/>
       <c r="D49" s="64" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
@@ -3524,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="64" t="s">
@@ -3539,7 +2726,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="64" t="s">
@@ -3554,11 +2741,11 @@
         <v>18</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
@@ -3569,7 +2756,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="64" t="s">
@@ -3584,7 +2771,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="64" t="s">
@@ -3599,7 +2786,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="72" t="s">
@@ -3679,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2918F82D-7CEA-4739-BB74-998B92E3CF77}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3710,7 +2897,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
@@ -3726,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
@@ -3742,14 +2929,14 @@
         <v>8</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="61"/>
     </row>
@@ -3758,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
@@ -3774,7 +2961,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="22"/>
@@ -3836,10 +3023,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -3853,25 +3040,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -3879,19 +3066,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
@@ -3903,19 +3090,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>10</v>
@@ -3929,17 +3116,17 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
@@ -3949,17 +3136,17 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
@@ -3969,17 +3156,17 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
@@ -3989,13 +3176,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -4007,13 +3194,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -4025,19 +3212,19 @@
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
       <c r="H22" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -4045,13 +3232,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -4065,13 +3252,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>10</v>
@@ -4091,13 +3278,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>10</v>
@@ -4117,13 +3304,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -4135,13 +3322,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -4153,13 +3340,13 @@
         <v>15</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -4170,7 +3357,7 @@
     </row>
     <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4178,25 +3365,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4204,13 +3391,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -4218,7 +3405,7 @@
     </row>
     <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4226,23 +3413,23 @@
         <v>1</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F37" s="57"/>
       <c r="G37" s="29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4250,23 +3437,23 @@
         <v>1</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F40" s="57"/>
       <c r="G40" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4274,23 +3461,23 @@
         <v>1</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F43" s="57"/>
       <c r="G43" s="29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -4298,11 +3485,11 @@
         <v>1</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
@@ -4313,11 +3500,11 @@
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E47" s="70"/>
       <c r="F47" s="70"/>
@@ -4328,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C48" s="65"/>
       <c r="D48" s="64" t="s">
@@ -4343,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C49" s="65"/>
       <c r="D49" s="64" t="s">
@@ -4358,11 +3545,11 @@
         <v>4</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
@@ -4373,11 +3560,11 @@
         <v>5</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="64" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E51" s="66"/>
       <c r="F51" s="66"/>
@@ -4388,11 +3575,11 @@
         <v>6</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
@@ -4403,11 +3590,11 @@
         <v>7</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="64" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E53" s="66"/>
       <c r="F53" s="66"/>
@@ -4418,11 +3605,11 @@
         <v>8</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
@@ -4433,11 +3620,11 @@
         <v>9</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
@@ -4448,11 +3635,11 @@
         <v>10</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="64" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
@@ -4463,11 +3650,11 @@
         <v>11</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
@@ -4478,11 +3665,11 @@
         <v>12</v>
       </c>
       <c r="B58" s="64" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
@@ -4493,11 +3680,11 @@
         <v>13</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E59" s="66"/>
       <c r="F59" s="66"/>
@@ -4508,7 +3695,7 @@
         <v>14</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="64" t="s">
@@ -4523,11 +3710,11 @@
         <v>15</v>
       </c>
       <c r="B61" s="64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C61" s="65"/>
       <c r="D61" s="64" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
@@ -4538,7 +3725,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C62" s="65"/>
       <c r="D62" s="64" t="s">
@@ -4553,7 +3740,7 @@
         <v>17</v>
       </c>
       <c r="B63" s="64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C63" s="65"/>
       <c r="D63" s="64" t="s">
@@ -4568,11 +3755,11 @@
         <v>18</v>
       </c>
       <c r="B64" s="64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
@@ -4583,7 +3770,7 @@
         <v>19</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C65" s="65"/>
       <c r="D65" s="64" t="s">
@@ -4598,7 +3785,7 @@
         <v>20</v>
       </c>
       <c r="B66" s="64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="65"/>
       <c r="D66" s="64" t="s">
@@ -4613,7 +3800,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C67" s="73"/>
       <c r="D67" s="72" t="s">
@@ -4693,14 +3880,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4724,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
@@ -4740,7 +3929,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
@@ -4756,14 +3945,14 @@
         <v>8</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="61"/>
     </row>
@@ -4772,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
@@ -4788,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="22"/>
@@ -4850,10 +4039,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -4867,19 +4056,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="E14" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
@@ -4891,19 +4080,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
@@ -4915,19 +4104,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>10</v>
@@ -4941,17 +4130,17 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
@@ -4961,17 +4150,17 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
@@ -4981,24 +4170,24 @@
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5006,25 +4195,25 @@
         <v>1</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5032,13 +4221,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -5046,7 +4235,7 @@
     </row>
     <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5054,23 +4243,23 @@
         <v>1</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5078,23 +4267,23 @@
         <v>1</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5102,23 +4291,23 @@
         <v>1</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F34" s="57"/>
       <c r="G34" s="29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -5126,11 +4315,11 @@
         <v>1</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
@@ -5141,11 +4330,11 @@
         <v>1</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E38" s="70"/>
       <c r="F38" s="70"/>
@@ -5156,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="64" t="s">
@@ -5171,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="64" t="s">
@@ -5186,11 +4375,11 @@
         <v>4</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C41" s="65"/>
       <c r="D41" s="64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E41" s="66"/>
       <c r="F41" s="66"/>
@@ -5201,11 +4390,11 @@
         <v>5</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C42" s="65"/>
       <c r="D42" s="64" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E42" s="66"/>
       <c r="F42" s="66"/>
@@ -5216,11 +4405,11 @@
         <v>6</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E43" s="66"/>
       <c r="F43" s="66"/>
@@ -5231,11 +4420,11 @@
         <v>7</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="64" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
@@ -5246,11 +4435,11 @@
         <v>8</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C45" s="65"/>
       <c r="D45" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
@@ -5261,11 +4450,11 @@
         <v>9</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
@@ -5276,11 +4465,11 @@
         <v>10</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="64" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E47" s="66"/>
       <c r="F47" s="66"/>
@@ -5291,11 +4480,11 @@
         <v>11</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C48" s="65"/>
       <c r="D48" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -5306,11 +4495,11 @@
         <v>12</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C49" s="65"/>
       <c r="D49" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
@@ -5321,11 +4510,11 @@
         <v>13</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
@@ -5336,7 +4525,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="64" t="s">
@@ -5351,11 +4540,11 @@
         <v>15</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="64" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
@@ -5366,7 +4555,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="64" t="s">
@@ -5381,7 +4570,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="64" t="s">
@@ -5396,11 +4585,11 @@
         <v>18</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
@@ -5411,7 +4600,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="64" t="s">
@@ -5426,7 +4615,7 @@
         <v>20</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="64" t="s">
@@ -5441,7 +4630,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C58" s="73"/>
       <c r="D58" s="72" t="s">
@@ -5521,7 +4710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FC44A-A101-41B9-856F-0047CD3EDEE5}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -5555,7 +4744,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="20" t="s">
@@ -5571,14 +4760,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G3" s="61"/>
     </row>
@@ -5587,14 +4776,14 @@
         <v>8</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="61"/>
     </row>
@@ -5603,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="21" t="s">
@@ -5619,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="22"/>
@@ -5681,10 +4870,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>23</v>
@@ -5698,19 +4887,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
@@ -5722,19 +4911,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
@@ -5748,13 +4937,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>10</v>
@@ -5769,7 +4958,7 @@
     </row>
     <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5777,25 +4966,25 @@
         <v>1</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5803,13 +4992,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -5817,7 +5006,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5825,23 +5014,23 @@
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5849,23 +5038,23 @@
         <v>1</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5873,23 +5062,23 @@
         <v>1</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -5897,11 +5086,11 @@
         <v>1</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
@@ -5912,11 +5101,11 @@
         <v>1</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C35" s="69"/>
       <c r="D35" s="68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
@@ -5927,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="64" t="s">
@@ -5942,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="64" t="s">
@@ -5957,11 +5146,11 @@
         <v>4</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E38" s="66"/>
       <c r="F38" s="66"/>
@@ -5972,11 +5161,11 @@
         <v>5</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="64" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
@@ -5987,11 +5176,11 @@
         <v>6</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E40" s="66"/>
       <c r="F40" s="66"/>
@@ -6002,11 +5191,11 @@
         <v>7</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C41" s="65"/>
       <c r="D41" s="64" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E41" s="66"/>
       <c r="F41" s="66"/>
@@ -6017,11 +5206,11 @@
         <v>8</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C42" s="65"/>
       <c r="D42" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E42" s="66"/>
       <c r="F42" s="66"/>
@@ -6032,11 +5221,11 @@
         <v>9</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E43" s="66"/>
       <c r="F43" s="66"/>
@@ -6047,11 +5236,11 @@
         <v>10</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="64" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
@@ -6062,11 +5251,11 @@
         <v>11</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C45" s="65"/>
       <c r="D45" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
@@ -6077,11 +5266,11 @@
         <v>12</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
@@ -6092,11 +5281,11 @@
         <v>13</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E47" s="66"/>
       <c r="F47" s="66"/>
@@ -6107,7 +5296,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C48" s="65"/>
       <c r="D48" s="64" t="s">
@@ -6122,11 +5311,11 @@
         <v>15</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C49" s="65"/>
       <c r="D49" s="64" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
@@ -6137,7 +5326,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="64" t="s">
@@ -6152,7 +5341,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="64" t="s">
@@ -6167,11 +5356,11 @@
         <v>18</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
@@ -6182,7 +5371,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="64" t="s">
@@ -6197,7 +5386,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="64" t="s">
@@ -6212,7 +5401,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="72" t="s">

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A5542-A08C-4CBD-834D-926DFB61113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF9CEA1-1AFC-4C05-81A1-44614380E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="2" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="3" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="169">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -579,10 +579,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>varchar(８)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>varchar(1５２)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -734,6 +730,17 @@
   </si>
   <si>
     <t>varchar(8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_jobマスタ参照</t>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>integer</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1578,6 +1585,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1612,36 +1649,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2103,7 +2110,7 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2126,113 +2133,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2405,10 +2412,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -2429,10 +2436,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -2453,10 +2460,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -2500,286 +2507,286 @@
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="53"/>
+      <c r="D38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
@@ -2873,7 +2880,7 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2896,113 +2903,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3043,7 +3050,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>131</v>
@@ -3069,7 +3076,7 @@
         <v>116</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>130</v>
@@ -3093,7 +3100,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>130</v>
@@ -3119,7 +3126,7 @@
         <v>118</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>130</v>
@@ -3139,7 +3146,7 @@
         <v>119</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>130</v>
@@ -3159,7 +3166,7 @@
         <v>120</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>24</v>
@@ -3179,7 +3186,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>130</v>
@@ -3197,7 +3204,7 @@
         <v>122</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>132</v>
@@ -3215,7 +3222,7 @@
         <v>123</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>95</v>
@@ -3224,7 +3231,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
       <c r="H22" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -3235,10 +3242,10 @@
         <v>124</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -3255,10 +3262,10 @@
         <v>125</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>10</v>
@@ -3281,7 +3288,7 @@
         <v>126</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>95</v>
@@ -3296,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -3307,7 +3314,7 @@
         <v>127</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>95</v>
@@ -3317,7 +3324,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>14</v>
       </c>
@@ -3325,10 +3332,10 @@
         <v>128</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3343,10 +3350,10 @@
         <v>129</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -3419,10 +3426,10 @@
         <v>27</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="57"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="29" t="s">
         <v>38</v>
       </c>
@@ -3443,10 +3450,10 @@
         <v>27</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="29" t="s">
         <v>41</v>
       </c>
@@ -3467,10 +3474,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="29" t="s">
         <v>46</v>
       </c>
@@ -3514,286 +3521,286 @@
       <c r="A48" s="16">
         <v>2</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>3</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>5</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>6</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>7</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>8</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>9</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="64" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>10</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="64" t="s">
+      <c r="C56" s="53"/>
+      <c r="D56" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>11</v>
       </c>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="64" t="s">
+      <c r="C57" s="53"/>
+      <c r="D57" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>12</v>
       </c>
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="64" t="s">
+      <c r="C58" s="53"/>
+      <c r="D58" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="55"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>13</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="64" t="s">
+      <c r="C59" s="53"/>
+      <c r="D59" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="55"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>14</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="55"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>15</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="64" t="s">
+      <c r="C61" s="53"/>
+      <c r="D61" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="67"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="55"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>16</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="67"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="55"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>17</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="67"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>18</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="64" t="s">
+      <c r="C64" s="53"/>
+      <c r="D64" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="55"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>19</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="55"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>20</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="55"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="17">
@@ -3912,113 +3919,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4056,13 +4063,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>96</v>
@@ -4080,13 +4087,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
@@ -4104,13 +4111,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>10</v>
@@ -4130,13 +4137,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="42" t="s">
@@ -4150,13 +4157,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="42" t="s">
@@ -4170,10 +4177,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>95</v>
@@ -4249,10 +4256,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="29" t="s">
         <v>38</v>
       </c>
@@ -4273,10 +4280,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="29" t="s">
         <v>41</v>
       </c>
@@ -4297,10 +4304,10 @@
         <v>44</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="29" t="s">
         <v>46</v>
       </c>
@@ -4344,286 +4351,286 @@
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>5</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>6</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>7</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>8</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>10</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>11</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>12</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>13</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>14</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>15</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>16</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>17</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>18</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="64" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>19</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>20</v>
       </c>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17">
@@ -4743,113 +4750,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -5020,10 +5027,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -5044,10 +5051,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -5068,10 +5075,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -5115,286 +5122,286 @@
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="53"/>
+      <c r="D38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF9CEA1-1AFC-4C05-81A1-44614380E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F1327A-A7C9-419F-900B-432EE703FA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="3" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="170">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -741,6 +741,13 @@
   </si>
   <si>
     <t>integer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイフンなし7桁</t>
+    <rPh sb="6" eb="7">
+      <t>ケタ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1585,13 +1592,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1601,18 +1623,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1663,16 +1673,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2133,113 +2140,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2412,10 +2419,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="67"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -2436,10 +2443,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -2460,10 +2467,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -2492,357 +2499,325 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="70"/>
+      <c r="D35" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="52" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -2856,12 +2831,44 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2903,113 +2910,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3252,7 +3259,9 @@
       <c r="G23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
@@ -3426,10 +3435,10 @@
         <v>27</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="67"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="29" t="s">
         <v>38</v>
       </c>
@@ -3450,10 +3459,10 @@
         <v>27</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="67"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="29" t="s">
         <v>41</v>
       </c>
@@ -3474,10 +3483,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="67"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="29" t="s">
         <v>46</v>
       </c>
@@ -3506,357 +3515,325 @@
       <c r="A47" s="15">
         <v>1</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="68" t="s">
+      <c r="C47" s="70"/>
+      <c r="D47" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>2</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>3</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
+      <c r="C50" s="51"/>
+      <c r="D50" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>5</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>6</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>7</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>8</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>9</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>10</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="52" t="s">
+      <c r="C56" s="51"/>
+      <c r="D56" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>11</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52" t="s">
+      <c r="C57" s="51"/>
+      <c r="D57" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>12</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="52" t="s">
+      <c r="C58" s="51"/>
+      <c r="D58" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="55"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>13</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="52" t="s">
+      <c r="C59" s="51"/>
+      <c r="D59" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>14</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>15</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="52" t="s">
+      <c r="C61" s="51"/>
+      <c r="D61" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="55"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>16</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="53"/>
-      <c r="D62" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="55"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>17</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="55"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>18</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="52" t="s">
+      <c r="C64" s="51"/>
+      <c r="D64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="55"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>19</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>20</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="55"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="17">
         <v>21</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C5:D5"/>
@@ -3870,12 +3847,44 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3919,113 +3928,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4256,10 +4265,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="29" t="s">
         <v>38</v>
       </c>
@@ -4280,10 +4289,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="29" t="s">
         <v>41</v>
       </c>
@@ -4304,10 +4313,10 @@
         <v>44</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="67"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="29" t="s">
         <v>46</v>
       </c>
@@ -4336,325 +4345,357 @@
       <c r="A38" s="15">
         <v>1</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="68" t="s">
+      <c r="C38" s="70"/>
+      <c r="D38" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>5</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>6</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>7</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>8</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>10</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>11</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>12</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>13</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
+      <c r="C50" s="51"/>
+      <c r="D50" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>14</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>15</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>16</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>17</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>18</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>19</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>20</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17">
         <v>21</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="75"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="C5:D5"/>
@@ -4668,44 +4709,12 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4750,113 +4759,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -5027,10 +5036,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="67"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -5051,10 +5060,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -5075,10 +5084,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -5107,357 +5116,325 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="70"/>
+      <c r="D35" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="52" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -5471,12 +5448,44 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F1327A-A7C9-419F-900B-432EE703FA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A3BB9F-ABAB-48AB-8803-55FB05B5524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="3" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId2"/>
     <sheet name="public.m_prefecture" sheetId="5" r:id="rId3"/>
     <sheet name="public.customer_table" sheetId="6" r:id="rId4"/>
-    <sheet name="public.user_table" sheetId="8" r:id="rId5"/>
-    <sheet name="public.m_job" sheetId="7" r:id="rId6"/>
+    <sheet name="public.purchase_table" sheetId="9" r:id="rId5"/>
+    <sheet name="public.user_table" sheetId="8" r:id="rId6"/>
+    <sheet name="public.m_job" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="184">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -747,6 +748,83 @@
     <t>ハイフンなし7桁</t>
     <rPh sb="6" eb="7">
       <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/11/4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_table</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入内容</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払方法</t>
+    <rPh sb="0" eb="4">
+      <t>シハライホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入日</t>
+    <rPh sb="0" eb="3">
+      <t>コウニュウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_prefectureマスタ参照</t>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1592,16 +1670,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1614,15 +1698,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1673,13 +1748,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2117,7 +2195,9 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2140,113 +2220,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2419,10 +2499,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -2443,10 +2523,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -2467,10 +2547,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -2499,325 +2579,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="69" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="50" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="50" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="53"/>
+      <c r="D38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -2831,44 +2943,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2887,6 +2967,1024 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>13</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="11">
+        <v>15</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="67"/>
+      <c r="G37" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="67"/>
+      <c r="G43" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="15">
+        <v>1</v>
+      </c>
+      <c r="B47" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>2</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>3</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>4</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>5</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>6</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>7</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>8</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>9</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="53"/>
+      <c r="D55" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>10</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
+        <v>11</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="53"/>
+      <c r="D57" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A58" s="16">
+        <v>12</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="53"/>
+      <c r="D58" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="55"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A59" s="16">
+        <v>13</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="53"/>
+      <c r="D59" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="55"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A60" s="16">
+        <v>14</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="53"/>
+      <c r="D60" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="55"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A61" s="16">
+        <v>15</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="53"/>
+      <c r="D61" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="55"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A62" s="16">
+        <v>16</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="53"/>
+      <c r="D62" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="55"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A63" s="16">
+        <v>17</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="53"/>
+      <c r="D63" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="55"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A64" s="16">
+        <v>18</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="53"/>
+      <c r="D64" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="55"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A65" s="16">
+        <v>19</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="53"/>
+      <c r="D65" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="55"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A66" s="16">
+        <v>20</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="53"/>
+      <c r="D66" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="55"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="17">
+        <v>21</v>
+      </c>
+      <c r="B67" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="73"/>
+      <c r="D67" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0E3FAD-0263-4CB5-AEB7-B4E62260CE57}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -2910,113 +4008,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="56"/>
+      <c r="F3" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="56"/>
+      <c r="F4" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="55"/>
+      <c r="C6" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3071,22 +4169,20 @@
       <c r="G14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
@@ -3104,10 +4200,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>130</v>
@@ -3130,13 +4226,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="42" t="s">
@@ -3150,13 +4246,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="42" t="s">
@@ -3165,1034 +4261,18 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
-        <v>10</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
-        <v>11</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
-        <v>12</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="7">
-        <v>13</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
-        <v>14</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="11">
-        <v>15</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="15">
-        <v>1</v>
-      </c>
-      <c r="B47" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="16">
-        <v>2</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="16">
-        <v>3</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="16">
-        <v>4</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="16">
-        <v>5</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="16">
-        <v>6</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="16">
-        <v>7</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="16">
-        <v>8</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="16">
-        <v>9</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="16">
-        <v>10</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="16">
-        <v>11</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="16">
-        <v>12</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A59" s="16">
-        <v>13</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A60" s="16">
-        <v>14</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A61" s="16">
-        <v>15</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A62" s="16">
-        <v>16</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A63" s="16">
-        <v>17</v>
-      </c>
-      <c r="B63" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A64" s="16">
-        <v>18</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A65" s="16">
-        <v>19</v>
-      </c>
-      <c r="B65" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A66" s="16">
-        <v>20</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="17">
-        <v>21</v>
-      </c>
-      <c r="B67" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="75"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
     <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="43" t="s">
@@ -4265,10 +4345,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="29" t="s">
         <v>38</v>
       </c>
@@ -4289,10 +4369,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="29" t="s">
         <v>41</v>
       </c>
@@ -4313,10 +4393,10 @@
         <v>44</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="29" t="s">
         <v>46</v>
       </c>
@@ -4345,316 +4425,316 @@
       <c r="A38" s="15">
         <v>1</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="69" t="s">
+      <c r="C38" s="69"/>
+      <c r="D38" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>5</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>6</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>7</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>8</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>10</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>11</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>12</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>13</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>14</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>15</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>16</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>17</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>18</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>19</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>20</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17">
         <v>21</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="49"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -4696,6 +4776,11 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="C5:D5"/>
@@ -4704,11 +4789,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -4727,6 +4807,836 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="67"/>
+      <c r="G31" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="15">
+        <v>1</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="16">
+        <v>2</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="16">
+        <v>3</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>4</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>5</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>6</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>7</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>8</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>9</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>10</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>11</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>12</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>13</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>14</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>15</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>16</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>17</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>18</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="53"/>
+      <c r="D55" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>19</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
+        <v>20</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="53"/>
+      <c r="D57" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="17">
+        <v>21</v>
+      </c>
+      <c r="B58" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="73"/>
+      <c r="D58" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FC44A-A101-41B9-856F-0047CD3EDEE5}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -4759,113 +5669,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -5036,10 +5946,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -5060,10 +5970,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -5084,10 +5994,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -5116,325 +6026,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="69" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="50" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="50" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="53"/>
+      <c r="D38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -5448,44 +6390,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A3BB9F-ABAB-48AB-8803-55FB05B5524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C2F1D1-3AA6-476B-86AC-26B7FA60D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
@@ -1670,13 +1670,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1686,18 +1701,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1748,16 +1751,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2220,113 +2220,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2499,10 +2499,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="67"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -2523,10 +2523,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -2547,10 +2547,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -2579,357 +2579,325 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="70"/>
+      <c r="D35" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="52" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -2943,12 +2911,44 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2990,113 +2990,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3517,10 +3517,10 @@
         <v>27</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="67"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="29" t="s">
         <v>38</v>
       </c>
@@ -3541,10 +3541,10 @@
         <v>27</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="67"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="29" t="s">
         <v>41</v>
       </c>
@@ -3565,10 +3565,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="67"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="29" t="s">
         <v>46</v>
       </c>
@@ -3597,357 +3597,325 @@
       <c r="A47" s="15">
         <v>1</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="68" t="s">
+      <c r="C47" s="70"/>
+      <c r="D47" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>2</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>3</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
+      <c r="C50" s="51"/>
+      <c r="D50" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>5</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>6</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>7</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>8</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>9</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>10</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="52" t="s">
+      <c r="C56" s="51"/>
+      <c r="D56" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>11</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52" t="s">
+      <c r="C57" s="51"/>
+      <c r="D57" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>12</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="52" t="s">
+      <c r="C58" s="51"/>
+      <c r="D58" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="55"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>13</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="52" t="s">
+      <c r="C59" s="51"/>
+      <c r="D59" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>14</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>15</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="52" t="s">
+      <c r="C61" s="51"/>
+      <c r="D61" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="55"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>16</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="53"/>
-      <c r="D62" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="55"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>17</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="55"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>18</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="52" t="s">
+      <c r="C64" s="51"/>
+      <c r="D64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="55"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>19</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>20</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="55"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="17">
         <v>21</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C5:D5"/>
@@ -3961,12 +3929,44 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4008,113 +4008,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4206,7 +4206,7 @@
         <v>181</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>10</v>
@@ -4345,10 +4345,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="29" t="s">
         <v>38</v>
       </c>
@@ -4369,10 +4369,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="29" t="s">
         <v>41</v>
       </c>
@@ -4393,10 +4393,10 @@
         <v>44</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="67"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="29" t="s">
         <v>46</v>
       </c>
@@ -4425,1146 +4425,316 @@
       <c r="A38" s="15">
         <v>1</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="68" t="s">
+      <c r="C38" s="70"/>
+      <c r="D38" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>5</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>6</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>7</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>8</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>10</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>11</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>12</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>13</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
+      <c r="C50" s="51"/>
+      <c r="D50" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>14</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>15</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>16</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>17</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>18</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>19</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>20</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17">
         <v>21</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="51"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="51"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="15">
-        <v>1</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="16">
-        <v>2</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="16">
-        <v>3</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="16">
-        <v>4</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="16">
-        <v>5</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="16">
-        <v>6</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="16">
-        <v>7</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="16">
-        <v>8</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="16">
-        <v>9</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="16">
-        <v>10</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="16">
-        <v>11</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="16">
-        <v>12</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="16">
-        <v>13</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="16">
-        <v>14</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="16">
-        <v>15</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="16">
-        <v>16</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="16">
-        <v>17</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="16">
-        <v>18</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="16">
-        <v>19</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="16">
-        <v>20</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="17">
-        <v>21</v>
-      </c>
-      <c r="B58" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="75"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -5636,16 +4806,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FC44A-A101-41B9-856F-0047CD3EDEE5}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -5656,7 +4825,7 @@
     <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5669,113 +4838,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="50"/>
+      <c r="C5" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="55"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="50"/>
+      <c r="C6" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="55"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -5813,13 +4982,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>151</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>96</v>
@@ -5837,13 +5006,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
@@ -5854,112 +5023,148 @@
       <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="36" t="s">
+      <c r="B16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="25" t="s">
         <v>1</v>
       </c>
@@ -5970,377 +5175,407 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="67"/>
+      <c r="E28" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="68"/>
       <c r="G28" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="67"/>
+      <c r="E31" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="68"/>
       <c r="G31" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="68"/>
+      <c r="G34" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="23" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B37" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="32" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="15">
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B38" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C38" s="70"/>
+      <c r="D38" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="16">
-        <v>2</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="16">
-        <v>3</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="16">
-        <v>4</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
-        <v>5</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
-        <v>6</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+        <v>3</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
-        <v>7</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+        <v>4</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
-        <v>8</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+        <v>5</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
-        <v>9</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+        <v>6</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
-        <v>10</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+        <v>7</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
-        <v>11</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
-        <v>12</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
-        <v>13</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+        <v>10</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
-        <v>14</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+        <v>11</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
-        <v>15</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+        <v>12</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
-        <v>16</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+        <v>13</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
-        <v>17</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+        <v>14</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
-        <v>18</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+        <v>15</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
-        <v>19</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+        <v>16</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
+        <v>17</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>18</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>19</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="51"/>
+      <c r="D56" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B57" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="17">
+      <c r="C57" s="51"/>
+      <c r="D57" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B58" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="B53:C53"/>
@@ -6371,25 +5606,19 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -6405,4 +5634,775 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FC44A-A101-41B9-856F-0047CD3EDEE5}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="75"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="68"/>
+      <c r="G25" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="68"/>
+      <c r="G28" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="68"/>
+      <c r="G31" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="15">
+        <v>1</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="16">
+        <v>2</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="16">
+        <v>3</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="16">
+        <v>4</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="16">
+        <v>5</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="16">
+        <v>6</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>7</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>8</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>9</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>10</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>11</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>12</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>13</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>14</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>15</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>16</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>17</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>18</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>19</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>20</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="17">
+        <v>21</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C2F1D1-3AA6-476B-86AC-26B7FA60D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C67FB12-5F07-4AAE-9B5B-4C6BF5605370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="192">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -827,6 +827,30 @@
       <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_table_customer_id_fkey</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>2200_24650_1_not_null</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>customer_id IS NOT NULL</t>
+  </si>
+  <si>
+    <t>purchase_table_pkey</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -925,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1522,6 +1546,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1531,7 +1616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,16 +1755,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1692,15 +1783,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1751,13 +1833,88 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2220,113 +2377,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2499,10 +2656,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -2523,10 +2680,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -2547,10 +2704,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -2579,325 +2736,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="69" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="50" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="50" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="53"/>
+      <c r="D38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -2911,44 +3100,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2967,7 +3124,9 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2990,113 +3149,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3517,10 +3676,10 @@
         <v>27</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="68"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="29" t="s">
         <v>38</v>
       </c>
@@ -3541,10 +3700,10 @@
         <v>27</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="68"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="29" t="s">
         <v>41</v>
       </c>
@@ -3565,10 +3724,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="67" t="s">
+      <c r="E43" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="68"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="29" t="s">
         <v>46</v>
       </c>
@@ -3597,325 +3756,357 @@
       <c r="A47" s="15">
         <v>1</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="69" t="s">
+      <c r="C47" s="69"/>
+      <c r="D47" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>2</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>3</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>5</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>6</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>7</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50" t="s">
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>8</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>9</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>10</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="50" t="s">
+      <c r="C56" s="53"/>
+      <c r="D56" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>11</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="50" t="s">
+      <c r="C57" s="53"/>
+      <c r="D57" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>12</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="50" t="s">
+      <c r="C58" s="53"/>
+      <c r="D58" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="55"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>13</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="50" t="s">
+      <c r="C59" s="53"/>
+      <c r="D59" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="55"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>14</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="55"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>15</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="50" t="s">
+      <c r="C61" s="53"/>
+      <c r="D61" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="55"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>16</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="55"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>17</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>18</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="50" t="s">
+      <c r="C64" s="53"/>
+      <c r="D64" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="55"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>19</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="55"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>20</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="55"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="17">
         <v>21</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="49"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C5:D5"/>
@@ -3929,44 +4120,12 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3983,9 +4142,938 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="37">
+        <v>1</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="83"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="84"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="11">
+        <v>2</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="37"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="97"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="37">
+        <v>1</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="99"/>
+      <c r="E31" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="99"/>
+      <c r="G31" s="83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="77"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="67"/>
+      <c r="G37" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="15">
+        <v>1</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="69"/>
+      <c r="D41" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>2</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>3</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>4</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>5</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>6</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>7</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>8</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>9</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>10</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>11</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>12</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>13</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>14</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>15</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="53"/>
+      <c r="D55" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>16</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
+        <v>17</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="53"/>
+      <c r="D57" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A58" s="16">
+        <v>18</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="53"/>
+      <c r="D58" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="55"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A59" s="16">
+        <v>19</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="53"/>
+      <c r="D59" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="55"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A60" s="16">
+        <v>20</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="53"/>
+      <c r="D60" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="55"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="17">
+        <v>21</v>
+      </c>
+      <c r="B61" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="73"/>
+      <c r="D61" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4008,113 +5096,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="56"/>
+      <c r="F3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="56"/>
+      <c r="F4" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="55"/>
+      <c r="C6" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4152,13 +5240,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>131</v>
+        <v>151</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>96</v>
@@ -4176,13 +5264,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
@@ -4200,13 +5288,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>10</v>
@@ -4226,13 +5314,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="42" t="s">
@@ -4246,13 +5334,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="42" t="s">
@@ -4266,13 +5354,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="43" t="s">
@@ -4345,10 +5433,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="29" t="s">
         <v>38</v>
       </c>
@@ -4369,10 +5457,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="29" t="s">
         <v>41</v>
       </c>
@@ -4393,10 +5481,10 @@
         <v>44</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="29" t="s">
         <v>46</v>
       </c>
@@ -4425,316 +5513,316 @@
       <c r="A38" s="15">
         <v>1</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="69" t="s">
+      <c r="C38" s="69"/>
+      <c r="D38" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>5</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>6</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>7</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>8</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>10</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>11</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>12</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>13</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>14</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>15</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>16</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>17</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>18</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>19</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>20</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17">
         <v>21</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="49"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -4806,15 +5894,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FC44A-A101-41B9-856F-0047CD3EDEE5}">
   <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -4825,7 +5914,7 @@
     <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4838,113 +5927,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="56"/>
+      <c r="F3" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="50"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="55"/>
+      <c r="C6" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="50"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4982,13 +6071,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>166</v>
+        <v>112</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>96</v>
@@ -5006,13 +6095,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
@@ -5023,148 +6112,112 @@
       <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
         <v>3</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="67"/>
+      <c r="G25" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="25" t="s">
         <v>1</v>
       </c>
@@ -5175,407 +6228,377 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="68"/>
+      <c r="E28" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="67"/>
       <c r="G28" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="68"/>
+      <c r="E31" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="67"/>
       <c r="G31" s="29" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="23" t="s">
+      <c r="B34" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
+      <c r="B35" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="69"/>
+      <c r="D35" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="16">
+        <v>2</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="16">
+        <v>3</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="15">
-        <v>1</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
+      <c r="A38" s="16">
+        <v>4</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
-        <v>2</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+        <v>5</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
-        <v>3</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
+        <v>6</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
-        <v>4</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+        <v>7</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
-        <v>5</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+        <v>8</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
-        <v>6</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+        <v>9</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
-        <v>7</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+        <v>10</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
-        <v>8</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
-        <v>9</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
-        <v>10</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+        <v>13</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
-        <v>11</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+        <v>14</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
-        <v>12</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+        <v>15</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
-        <v>13</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+        <v>16</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
-        <v>14</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
-        <v>15</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+        <v>18</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
-        <v>16</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+        <v>19</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
-        <v>17</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="16">
-        <v>18</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="16">
-        <v>19</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="16">
         <v>20</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B54" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="17">
+      <c r="C54" s="53"/>
+      <c r="D54" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B55" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="49"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="B53:C53"/>
@@ -5606,19 +6629,25 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -5634,775 +6663,4 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FC44A-A101-41B9-856F-0047CD3EDEE5}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="75"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
-        <v>3</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="15">
-        <v>1</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="16">
-        <v>2</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="16">
-        <v>3</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="16">
-        <v>4</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="16">
-        <v>5</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="16">
-        <v>6</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="16">
-        <v>7</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="16">
-        <v>8</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="16">
-        <v>9</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="16">
-        <v>10</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="16">
-        <v>11</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="16">
-        <v>12</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="16">
-        <v>13</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="16">
-        <v>14</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="16">
-        <v>15</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="16">
-        <v>16</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="16">
-        <v>17</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="16">
-        <v>18</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="16">
-        <v>19</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="16">
-        <v>20</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="17">
-        <v>21</v>
-      </c>
-      <c r="B55" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C67FB12-5F07-4AAE-9B5B-4C6BF5605370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C68E301-8414-48EB-B22A-781E3BEF1E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="3" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="public.m_prefecture" sheetId="5" r:id="rId3"/>
     <sheet name="public.customer_table" sheetId="6" r:id="rId4"/>
     <sheet name="public.purchase_table" sheetId="9" r:id="rId5"/>
-    <sheet name="public.user_table" sheetId="8" r:id="rId6"/>
-    <sheet name="public.m_job" sheetId="7" r:id="rId7"/>
+    <sheet name="public.purchase_detail_table" sheetId="10" r:id="rId6"/>
+    <sheet name="public.user_table" sheetId="8" r:id="rId7"/>
+    <sheet name="public.m_job" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="203">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -774,13 +775,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>金額</t>
-    <rPh sb="0" eb="2">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -851,6 +845,80 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>purchase_detail_table</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入詳細テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入詳細ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個数</t>
+    <rPh sb="0" eb="2">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unit_price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_detail_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計金額</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1755,13 +1823,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1771,18 +1887,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1833,88 +1937,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2377,113 +2418,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2656,10 +2697,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="67"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -2680,10 +2721,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -2704,10 +2745,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -2736,357 +2777,325 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="81"/>
+      <c r="D35" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52" t="s">
+      <c r="C36" s="62"/>
+      <c r="D36" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="52" t="s">
+      <c r="C37" s="62"/>
+      <c r="D37" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="64"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52" t="s">
+      <c r="C38" s="62"/>
+      <c r="D38" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="62"/>
+      <c r="D39" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="62"/>
+      <c r="D40" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="62"/>
+      <c r="D41" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="62"/>
+      <c r="D47" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="62"/>
+      <c r="D49" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="62"/>
+      <c r="D52" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -3100,12 +3109,44 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3149,113 +3190,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3571,7 +3612,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3676,10 +3717,10 @@
         <v>27</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="67"/>
+      <c r="F37" s="79"/>
       <c r="G37" s="29" t="s">
         <v>38</v>
       </c>
@@ -3700,10 +3741,10 @@
         <v>27</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="67"/>
+      <c r="F40" s="79"/>
       <c r="G40" s="29" t="s">
         <v>41</v>
       </c>
@@ -3724,10 +3765,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="67"/>
+      <c r="F43" s="79"/>
       <c r="G43" s="29" t="s">
         <v>46</v>
       </c>
@@ -3756,357 +3797,325 @@
       <c r="A47" s="15">
         <v>1</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="68" t="s">
+      <c r="C47" s="81"/>
+      <c r="D47" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="83"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>2</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="62"/>
+      <c r="D48" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>3</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="62"/>
+      <c r="D49" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
+      <c r="C50" s="62"/>
+      <c r="D50" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>5</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
+      <c r="C51" s="62"/>
+      <c r="D51" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>6</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="62"/>
+      <c r="D52" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>7</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
+      <c r="C53" s="62"/>
+      <c r="D53" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>8</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
+      <c r="C54" s="62"/>
+      <c r="D54" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>9</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="62"/>
+      <c r="D55" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="64"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>10</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="52" t="s">
+      <c r="C56" s="62"/>
+      <c r="D56" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>11</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52" t="s">
+      <c r="C57" s="62"/>
+      <c r="D57" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>12</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="52" t="s">
+      <c r="C58" s="62"/>
+      <c r="D58" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="55"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>13</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="52" t="s">
+      <c r="C59" s="62"/>
+      <c r="D59" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="64"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>14</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="64"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>15</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="52" t="s">
+      <c r="C61" s="62"/>
+      <c r="D61" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="55"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="64"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>16</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="53"/>
-      <c r="D62" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="55"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="64"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>17</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="55"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="64"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>18</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="52" t="s">
+      <c r="C64" s="62"/>
+      <c r="D64" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="55"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>19</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>20</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="55"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="17">
         <v>21</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C5:D5"/>
@@ -4120,12 +4129,44 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4167,118 +4208,119 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
         <v>19</v>
       </c>
+      <c r="C12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
@@ -4311,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>152</v>
+        <v>193</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>131</v>
@@ -4334,18 +4376,16 @@
       <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="42" t="s">
         <v>96</v>
       </c>
@@ -4359,10 +4399,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>168</v>
@@ -4385,10 +4425,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>95</v>
@@ -4405,10 +4445,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>95</v>
@@ -4425,10 +4465,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>24</v>
@@ -4470,29 +4510,23 @@
       <c r="A23" s="37">
         <v>1</v>
       </c>
-      <c r="B23" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" s="83"/>
+      <c r="B23" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="88"/>
+      <c r="E23" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="36" t="s">
@@ -4521,43 +4555,43 @@
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="88" t="s">
-        <v>188</v>
-      </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
     </row>
     <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>2</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
+      <c r="D28" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="37"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="97"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
     </row>
     <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="25" t="s">
@@ -4570,10 +4604,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="67"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="29" t="s">
         <v>38</v>
       </c>
@@ -4582,19 +4616,19 @@
       <c r="A31" s="37">
         <v>1</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="98" t="s">
+      <c r="D31" s="90"/>
+      <c r="E31" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="99"/>
-      <c r="G31" s="83" t="s">
-        <v>185</v>
+      <c r="F31" s="90"/>
+      <c r="G31" s="52" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4613,22 +4647,22 @@
         <v>27</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="67"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="77"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="36" t="s">
@@ -4646,10 +4680,10 @@
         <v>44</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="67"/>
+      <c r="F37" s="79"/>
       <c r="G37" s="29" t="s">
         <v>46</v>
       </c>
@@ -4678,319 +4712,365 @@
       <c r="A41" s="15">
         <v>1</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="68" t="s">
+      <c r="C41" s="81"/>
+      <c r="D41" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="83"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>2</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>3</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>4</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>5</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>6</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>7</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="62"/>
+      <c r="D47" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>8</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="62"/>
+      <c r="D48" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>9</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="62"/>
+      <c r="D49" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>10</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
+      <c r="C50" s="62"/>
+      <c r="D50" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>11</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
+      <c r="C51" s="62"/>
+      <c r="D51" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>12</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="62"/>
+      <c r="D52" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>13</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
+      <c r="C53" s="62"/>
+      <c r="D53" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>14</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>15</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="62"/>
+      <c r="D55" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="64"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>16</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>17</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>18</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="52" t="s">
+      <c r="C58" s="62"/>
+      <c r="D58" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="55"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>19</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="64"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>20</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="64"/>
     </row>
     <row r="61" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="17">
         <v>21</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="75"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B61:C61"/>
@@ -5001,6 +5081,1691 @@
     <mergeCell ref="D59:G59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357C387-2C51-4238-A14C-D9FE6AC61B9E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="85"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="86"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="11">
+        <v>5</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="37">
+        <v>1</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="88"/>
+      <c r="E22" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="37"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="79"/>
+      <c r="G29" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="37">
+        <v>1</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="90"/>
+      <c r="E30" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="90"/>
+      <c r="G30" s="52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="79"/>
+      <c r="G33" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="48"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="79"/>
+      <c r="G36" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="15">
+        <v>1</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="81"/>
+      <c r="D40" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="83"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>2</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="62"/>
+      <c r="D41" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>3</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="62"/>
+      <c r="D42" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>4</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="62"/>
+      <c r="D43" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>5</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="62"/>
+      <c r="D44" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>6</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="62"/>
+      <c r="D45" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>7</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>8</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="62"/>
+      <c r="D47" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>9</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="62"/>
+      <c r="D48" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>10</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="62"/>
+      <c r="D49" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>11</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="62"/>
+      <c r="D50" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>12</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="62"/>
+      <c r="D51" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>13</v>
+      </c>
+      <c r="B52" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="62"/>
+      <c r="D52" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>14</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="62"/>
+      <c r="D53" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>15</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="62"/>
+      <c r="D54" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>16</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="62"/>
+      <c r="D55" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="64"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>17</v>
+      </c>
+      <c r="B56" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="62"/>
+      <c r="D56" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
+        <v>18</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="62"/>
+      <c r="D57" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A58" s="16">
+        <v>19</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="62"/>
+      <c r="D58" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A59" s="16">
+        <v>20</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="62"/>
+      <c r="D59" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="64"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="17">
+        <v>21</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="58"/>
+      <c r="D60" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="85"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="86"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="79"/>
+      <c r="G28" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="79"/>
+      <c r="G31" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="79"/>
+      <c r="G34" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="15">
+        <v>1</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="81"/>
+      <c r="D38" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="83"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="16">
+        <v>2</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="16">
+        <v>3</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="62"/>
+      <c r="D40" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>4</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="62"/>
+      <c r="D41" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>5</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="62"/>
+      <c r="D42" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>6</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="62"/>
+      <c r="D43" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>7</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="62"/>
+      <c r="D44" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>8</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="62"/>
+      <c r="D45" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>9</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>10</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="62"/>
+      <c r="D47" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>11</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="62"/>
+      <c r="D48" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>12</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="62"/>
+      <c r="D49" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>13</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="62"/>
+      <c r="D50" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>14</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="62"/>
+      <c r="D51" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>15</v>
+      </c>
+      <c r="B52" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="62"/>
+      <c r="D52" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>16</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="62"/>
+      <c r="D53" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>17</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="62"/>
+      <c r="D54" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>18</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="62"/>
+      <c r="D55" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="64"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>19</v>
+      </c>
+      <c r="B56" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="62"/>
+      <c r="D56" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
+        <v>20</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="62"/>
+      <c r="D57" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="17">
+        <v>21</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="58"/>
+      <c r="D58" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B56:C56"/>
@@ -5031,22 +6796,25 @@
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -5064,837 +6832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90E346-ED06-46DD-8F81-D42625F51814}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="51"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="51"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="15">
-        <v>1</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="16">
-        <v>2</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="16">
-        <v>3</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="16">
-        <v>4</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="16">
-        <v>5</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="16">
-        <v>6</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="16">
-        <v>7</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="16">
-        <v>8</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="16">
-        <v>9</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="16">
-        <v>10</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="16">
-        <v>11</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="16">
-        <v>12</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="16">
-        <v>13</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="16">
-        <v>14</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="16">
-        <v>15</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="16">
-        <v>16</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="16">
-        <v>17</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="16">
-        <v>18</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="16">
-        <v>19</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="16">
-        <v>20</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="17">
-        <v>21</v>
-      </c>
-      <c r="B58" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FC44A-A101-41B9-856F-0047CD3EDEE5}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -5927,113 +6865,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -6204,10 +7142,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="67"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -6228,10 +7166,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -6252,10 +7190,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -6284,357 +7222,325 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="81"/>
+      <c r="D35" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52" t="s">
+      <c r="C36" s="62"/>
+      <c r="D36" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="52" t="s">
+      <c r="C37" s="62"/>
+      <c r="D37" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="64"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52" t="s">
+      <c r="C38" s="62"/>
+      <c r="D38" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="62"/>
+      <c r="D39" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="62"/>
+      <c r="D40" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="62"/>
+      <c r="D41" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="62"/>
+      <c r="D47" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="62"/>
+      <c r="D49" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="62"/>
+      <c r="D52" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -6648,12 +7554,44 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C68E301-8414-48EB-B22A-781E3BEF1E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C46B02-A282-440C-8182-7A807BCADA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="3" activeTab="4" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="3" activeTab="5" xr2:uid="{AB438195-0211-4297-9731-DA9C70F4323A}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
@@ -1856,16 +1856,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1878,15 +1884,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1937,25 +1934,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2418,113 +2418,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="67"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="67"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="B8" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="74"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -2697,10 +2697,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="79"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -2721,10 +2721,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="79"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -2745,10 +2745,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="79"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -2777,325 +2777,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="80" t="s">
+      <c r="C35" s="80"/>
+      <c r="D35" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="61" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="61" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="61" t="s">
+      <c r="C38" s="64"/>
+      <c r="D38" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="61" t="s">
+      <c r="C39" s="64"/>
+      <c r="D39" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="61" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="61" t="s">
+      <c r="C41" s="64"/>
+      <c r="D41" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="61" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="61" t="s">
+      <c r="C43" s="64"/>
+      <c r="D43" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="61" t="s">
+      <c r="C44" s="64"/>
+      <c r="D44" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="61" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="61" t="s">
+      <c r="C46" s="64"/>
+      <c r="D46" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="61" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="61" t="s">
+      <c r="C52" s="64"/>
+      <c r="D52" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -3109,44 +3141,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3190,113 +3190,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="67"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="67"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="B8" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="74"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -3717,10 +3717,10 @@
         <v>27</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="79"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="29" t="s">
         <v>38</v>
       </c>
@@ -3741,10 +3741,10 @@
         <v>27</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="79"/>
+      <c r="F40" s="78"/>
       <c r="G40" s="29" t="s">
         <v>41</v>
       </c>
@@ -3765,10 +3765,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="79"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="29" t="s">
         <v>46</v>
       </c>
@@ -3797,325 +3797,357 @@
       <c r="A47" s="15">
         <v>1</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="80" t="s">
+      <c r="C47" s="80"/>
+      <c r="D47" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="83"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>2</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="61" t="s">
+      <c r="C48" s="64"/>
+      <c r="D48" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>3</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="61" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="61" t="s">
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>5</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="61" t="s">
+      <c r="C51" s="64"/>
+      <c r="D51" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="64"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>6</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="61" t="s">
+      <c r="C52" s="64"/>
+      <c r="D52" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>7</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="61" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>8</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="61" t="s">
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>9</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="61" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="64"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>10</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="61" t="s">
+      <c r="C56" s="64"/>
+      <c r="D56" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>11</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="61" t="s">
+      <c r="C57" s="64"/>
+      <c r="D57" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="64"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>12</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="61" t="s">
+      <c r="C58" s="64"/>
+      <c r="D58" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="66"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>13</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="61" t="s">
+      <c r="C59" s="64"/>
+      <c r="D59" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="64"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>14</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="62"/>
-      <c r="D60" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="66"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>15</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="61" t="s">
+      <c r="C61" s="64"/>
+      <c r="D61" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="64"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="66"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>16</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="66"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>17</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="66"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>18</v>
       </c>
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="61" t="s">
+      <c r="C64" s="64"/>
+      <c r="D64" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="66"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>19</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="66"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>20</v>
       </c>
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="66"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="17">
         <v>21</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C5:D5"/>
@@ -4129,44 +4161,12 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4185,7 +4185,9 @@
   </sheetPr>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4208,113 +4210,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="67"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="67"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="B8" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="74"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -4513,10 +4515,10 @@
       <c r="B23" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="51" t="s">
         <v>190</v>
       </c>
@@ -4560,12 +4562,12 @@
       <c r="C27" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
     </row>
     <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
@@ -4577,12 +4579,12 @@
       <c r="C28" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="37"/>
@@ -4604,10 +4606,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="79"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="29" t="s">
         <v>38</v>
       </c>
@@ -4619,14 +4621,14 @@
       <c r="B31" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="90"/>
-      <c r="E31" s="89" t="s">
+      <c r="D31" s="88"/>
+      <c r="E31" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="90"/>
+      <c r="F31" s="88"/>
       <c r="G31" s="52" t="s">
         <v>184</v>
       </c>
@@ -4647,10 +4649,10 @@
         <v>27</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="79"/>
+      <c r="F34" s="78"/>
       <c r="G34" s="29" t="s">
         <v>41</v>
       </c>
@@ -4680,10 +4682,10 @@
         <v>44</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="79"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="29" t="s">
         <v>46</v>
       </c>
@@ -4712,325 +4714,359 @@
       <c r="A41" s="15">
         <v>1</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="80" t="s">
+      <c r="C41" s="80"/>
+      <c r="D41" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="83"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="82"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>2</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="61" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>3</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="61" t="s">
+      <c r="C43" s="64"/>
+      <c r="D43" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>4</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="61" t="s">
+      <c r="C44" s="64"/>
+      <c r="D44" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>5</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="61" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>6</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="61" t="s">
+      <c r="C46" s="64"/>
+      <c r="D46" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>7</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>8</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="61" t="s">
+      <c r="C48" s="64"/>
+      <c r="D48" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>9</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="61" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>10</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="61" t="s">
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>11</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="61" t="s">
+      <c r="C51" s="64"/>
+      <c r="D51" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="64"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>12</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="61" t="s">
+      <c r="C52" s="64"/>
+      <c r="D52" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>13</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="61" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>14</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>15</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="61" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="64"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>16</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>17</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>18</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="61" t="s">
+      <c r="C58" s="64"/>
+      <c r="D58" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="66"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>19</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>20</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="62"/>
-      <c r="D60" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="66"/>
     </row>
     <row r="61" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="17">
         <v>21</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="C5:D5"/>
@@ -5047,6 +5083,880 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="D27:G27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357C387-2C51-4238-A14C-D9FE6AC61B9E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="59"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="62"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="73"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="11">
+        <v>5</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="37">
+        <v>1</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="37"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="78"/>
+      <c r="G29" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="37">
+        <v>1</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="88"/>
+      <c r="E30" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="88"/>
+      <c r="G30" s="52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="78"/>
+      <c r="G33" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="48"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="78"/>
+      <c r="G36" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="15">
+        <v>1</v>
+      </c>
+      <c r="B40" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="82"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>2</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
+        <v>3</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="16">
+        <v>4</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>5</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16">
+        <v>6</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16">
+        <v>7</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>8</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>9</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>10</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>11</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="16">
+        <v>12</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16">
+        <v>13</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>14</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="16">
+        <v>15</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="16">
+        <v>16</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="64"/>
+      <c r="D55" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>17</v>
+      </c>
+      <c r="B56" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="64"/>
+      <c r="D56" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="16">
+        <v>18</v>
+      </c>
+      <c r="B57" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="64"/>
+      <c r="D57" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A58" s="16">
+        <v>19</v>
+      </c>
+      <c r="B58" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="64"/>
+      <c r="D58" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="66"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A59" s="16">
+        <v>20</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="64"/>
+      <c r="D59" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="17">
+        <v>21</v>
+      </c>
+      <c r="B60" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="84"/>
+      <c r="D60" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="B44:C44"/>
@@ -5071,864 +5981,10 @@
     <mergeCell ref="D53:G53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357C387-2C51-4238-A14C-D9FE6AC61B9E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H60"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="86"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="67"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="67"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="67"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="67"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="74"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="11">
-        <v>5</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="37">
-        <v>1</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="D23" s="46"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="11">
-        <v>2</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="37"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="37">
-        <v>1</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="52" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="48"/>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="15">
-        <v>1</v>
-      </c>
-      <c r="B40" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="83"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="16">
-        <v>2</v>
-      </c>
-      <c r="B41" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="16">
-        <v>3</v>
-      </c>
-      <c r="B42" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="16">
-        <v>4</v>
-      </c>
-      <c r="B43" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="16">
-        <v>5</v>
-      </c>
-      <c r="B44" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="16">
-        <v>6</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="16">
-        <v>7</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="64"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="16">
-        <v>8</v>
-      </c>
-      <c r="B47" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="16">
-        <v>9</v>
-      </c>
-      <c r="B48" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="16">
-        <v>10</v>
-      </c>
-      <c r="B49" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="16">
-        <v>11</v>
-      </c>
-      <c r="B50" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="16">
-        <v>12</v>
-      </c>
-      <c r="B51" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="64"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="16">
-        <v>13</v>
-      </c>
-      <c r="B52" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="16">
-        <v>14</v>
-      </c>
-      <c r="B53" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="16">
-        <v>15</v>
-      </c>
-      <c r="B54" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="16">
-        <v>16</v>
-      </c>
-      <c r="B55" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="64"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="16">
-        <v>17</v>
-      </c>
-      <c r="B56" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="16">
-        <v>18</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="64"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="16">
-        <v>19</v>
-      </c>
-      <c r="B58" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="64"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A59" s="16">
-        <v>20</v>
-      </c>
-      <c r="B59" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="64"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="17">
-        <v>21</v>
-      </c>
-      <c r="B60" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="62">
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:G60"/>
     <mergeCell ref="B57:C57"/>
@@ -5937,60 +5993,6 @@
     <mergeCell ref="D58:G58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6034,113 +6036,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="67"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="67"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="B8" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="74"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -6371,10 +6373,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="79"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="29" t="s">
         <v>38</v>
       </c>
@@ -6395,10 +6397,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="79"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="29" t="s">
         <v>41</v>
       </c>
@@ -6419,10 +6421,10 @@
         <v>44</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="79"/>
+      <c r="F34" s="78"/>
       <c r="G34" s="29" t="s">
         <v>46</v>
       </c>
@@ -6451,357 +6453,325 @@
       <c r="A38" s="15">
         <v>1</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="80" t="s">
+      <c r="C38" s="80"/>
+      <c r="D38" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="61" t="s">
+      <c r="C39" s="64"/>
+      <c r="D39" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="61" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="61" t="s">
+      <c r="C41" s="64"/>
+      <c r="D41" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>5</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="61" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>6</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="61" t="s">
+      <c r="C43" s="64"/>
+      <c r="D43" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>7</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="61" t="s">
+      <c r="C44" s="64"/>
+      <c r="D44" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>8</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="61" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="61" t="s">
+      <c r="C46" s="64"/>
+      <c r="D46" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>10</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>11</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="61" t="s">
+      <c r="C48" s="64"/>
+      <c r="D48" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>12</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="61" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>13</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="61" t="s">
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>14</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>15</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="61" t="s">
+      <c r="C52" s="64"/>
+      <c r="D52" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>16</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>17</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>18</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="61" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="64"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>19</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>20</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17">
         <v>21</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="60"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="C5:D5"/>
@@ -6815,12 +6785,44 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:G38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6865,113 +6867,113 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="67"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="67"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="B8" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="74"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
@@ -7142,10 +7144,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="79"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
@@ -7166,10 +7168,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="79"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
@@ -7190,10 +7192,10 @@
         <v>44</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="79"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="29" t="s">
         <v>46</v>
       </c>
@@ -7222,325 +7224,357 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="80" t="s">
+      <c r="C35" s="80"/>
+      <c r="D35" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="61" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>3</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="61" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="61" t="s">
+      <c r="C38" s="64"/>
+      <c r="D38" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="61" t="s">
+      <c r="C39" s="64"/>
+      <c r="D39" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="61" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="61" t="s">
+      <c r="C41" s="64"/>
+      <c r="D41" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="61" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>9</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="61" t="s">
+      <c r="C43" s="64"/>
+      <c r="D43" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="61" t="s">
+      <c r="C44" s="64"/>
+      <c r="D44" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="61" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="61" t="s">
+      <c r="C46" s="64"/>
+      <c r="D46" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>13</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>15</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="61" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>17</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>18</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="61" t="s">
+      <c r="C52" s="64"/>
+      <c r="D52" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>19</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>20</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>21</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C5:D5"/>
@@ -7554,44 +7588,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
